--- a/biology/Botanique/Eugenia_biflora/Eugenia_biflora.xlsx
+++ b/biology/Botanique/Eugenia_biflora/Eugenia_biflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia biflora est une espèce d'arbuste néotropical appartenant à la famille des Myrtaceae (famille du Goyavier). 
-Elle est appelée Blackrodwood en anglais[3]. Au Venezuela, on l'appelle Arichai (Arekuna)[4].
+Elle est appelée Blackrodwood en anglais. Au Venezuela, on l'appelle Arichai (Arekuna).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenia biflora est un arbuste, ou un petit arbre, haut de 0,3–3 mètres (parfois jusqu'à 5 m). Ses feuilles papyracées à coriaces, mesurant 4-5,5 cm de long et 1-2 cm de large, sont de forme variable : étroitement lancéolées à étroitement elliptiques, moins communément ovales, longuement acuminées, courtement mucronées. Elles sont glabres et ponctuées sur la face supérieure et légèrement pubescentes gris-argenté à la face inférieure (surtout sur la nervure médiane). L'inflorescence est un racème de 4-8 fleurs couvertes d'une pubescence brune, avec quelques poils blancs. Les pédicelles sont longs de 4 à 8 mm. Les sépales mesurent de 1,5 à 2 mm de long, et sont aigus à les deux extérieurs. L'ovaire, couvert d'une pubescence brune, est haut d'environ 1 mm et comporte 2 loges contenant chacune environ 6 ovules organisé en 2 séries. Le fruit est une baie sub-globuleuse[4],[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenia biflora est un arbuste, ou un petit arbre, haut de 0,3–3 mètres (parfois jusqu'à 5 m). Ses feuilles papyracées à coriaces, mesurant 4-5,5 cm de long et 1-2 cm de large, sont de forme variable : étroitement lancéolées à étroitement elliptiques, moins communément ovales, longuement acuminées, courtement mucronées. Elles sont glabres et ponctuées sur la face supérieure et légèrement pubescentes gris-argenté à la face inférieure (surtout sur la nervure médiane). L'inflorescence est un racème de 4-8 fleurs couvertes d'une pubescence brune, avec quelques poils blancs. Les pédicelles sont longs de 4 à 8 mm. Les sépales mesurent de 1,5 à 2 mm de long, et sont aigus à les deux extérieurs. L'ovaire, couvert d'une pubescence brune, est haut d'environ 1 mm et comporte 2 loges contenant chacune environ 6 ovules organisé en 2 séries. Le fruit est une baie sub-globuleuse,. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Eugenia biflora depuis le Mexique, jusqu'au Brésil en passant pas l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Eugenia biflora depuis le Mexique, jusqu'au Brésil en passant pas l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou et la Bolivie.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenia biflora pousse à partir du niveau de la mer jusqu'au moins 600 m d'altitude (200–600 m au Venezuela), dans les forêts saisonnièrement inondées, sur les bancs de sable ou de roches du lit des cours d'eau, sur les savanes rocheuses, et dans les bosquets de savanes[4].
-Eugenia biflora a fait partie d'un modèle sur la conservation de la biodiversité du cerrado brésilien[6].
-Bien que résistant au feu de savanes, le passage du feu a un fort impact sur la production de fruits l'année suivant chez Eugenia biflora, mais le retour à une production normale est ensuite rapide[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenia biflora pousse à partir du niveau de la mer jusqu'au moins 600 m d'altitude (200–600 m au Venezuela), dans les forêts saisonnièrement inondées, sur les bancs de sable ou de roches du lit des cours d'eau, sur les savanes rocheuses, et dans les bosquets de savanes.
+Eugenia biflora a fait partie d'un modèle sur la conservation de la biodiversité du cerrado brésilien.
+Bien que résistant au feu de savanes, le passage du feu a un fort impact sur la production de fruits l'année suivant chez Eugenia biflora, mais le retour à une production normale est ensuite rapide.
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits de Eugenia biflora sont comestibles.
-La composition chimique de Eugenia biflora a été analysée[8]. On a constaté des variations dans la composition chimique de son huile essentielle[9]. Elle peut contenir ou non, en diverses proportions, des caryophyllènes, des sesquiterpènes ((E)-caryophyllène, un cadinane : le α-cadinol), des aromadendranes (globulol, germacrène B  et Ɣ-élémène).
+La composition chimique de Eugenia biflora a été analysée. On a constaté des variations dans la composition chimique de son huile essentielle. Elle peut contenir ou non, en diverses proportions, des caryophyllènes, des sesquiterpènes ((E)-caryophyllène, un cadinane : le α-cadinol), des aromadendranes (globulol, germacrène B  et Ɣ-élémène).
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Eugenia biflora[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Eugenia biflora : 
 « EUGENIA (Mini) foliis lanceolatis, floribus racemoſis, fructu parvo, albo &amp; ex rubro variegato. (Tabula 197.) 
 Arbor mediocris, trunco ſexpedali, in ſummitate ramoſo ; ramis rectis, &amp; undique ſparſis. Folia oppoſita, lanceolata, glabra, inte-gerrima, punctis minimis, tranſlucidis, numerous quad foraminulata, ſupernè viridia, infernè e pallido virentia, ſubſeſſilia. Flores racemoſi, terminates, &amp; axillares ; racemulis oppoſitis, trifloris, ſingulis floribus pedunculatis. Bracteæ binæ ad bafim pedimculi, &amp; binæ calici ſubpoſitæ. Perianthium quadridentatum. Corolla tetrapctala, petalis albis. Fructus ; bacca ſubrotunda, ex albo &amp; rubro variegata, calicis denticuliscoronata, unilocularis. Semen folitarium, vel duo, pelliculâ vireſcente tecta. 
 Florebat Novembri. Fructum ferebat Decembri. 
